--- a/src/main/doc/工程实践说明文档.xlsx
+++ b/src/main/doc/工程实践说明文档.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE408F32-FF27-4667-9EF3-70A302431139}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A20C514-75E2-4883-96F8-7ADBA02536C5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t>Controller使用说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,6 +294,18 @@
   </si>
   <si>
     <t>CourseID,//课程id questionID,//题目id homeworkID //作业id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreatId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建不重复id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数是IDType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -940,6 +952,17 @@
         <v>69</v>
       </c>
     </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/doc/工程实践说明文档.xlsx
+++ b/src/main/doc/工程实践说明文档.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A20C514-75E2-4883-96F8-7ADBA02536C5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CD1C75-71D8-4F9F-8A92-D708D58E6167}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8580" yWindow="1584" windowWidth="11904" windowHeight="9120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
   <si>
     <t>Controller使用说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,6 +306,29 @@
   </si>
   <si>
     <t>参数是IDType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>消息传递作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传递的消息是什么</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -919,47 +942,71 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>1</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C71" t="s">
         <v>14</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D71" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>63</v>
-      </c>
-      <c r="C70" t="s">
-        <v>64</v>
-      </c>
-      <c r="D70" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>67</v>
-      </c>
-      <c r="C71" t="s">
-        <v>68</v>
-      </c>
-      <c r="D71" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>70</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C74" t="s">
         <v>71</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D74" t="s">
         <v>72</v>
       </c>
     </row>

--- a/src/main/doc/工程实践说明文档.xlsx
+++ b/src/main/doc/工程实践说明文档.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C671B241-F531-4D64-97A6-0A61774C26EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08C7E5C-F173-4DD2-A554-20D961800F4D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="135">
   <si>
     <t>Controller使用说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -559,6 +559,22 @@
   </si>
   <si>
     <t>(success,code,data) 是否成功，代码，携带数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据课程号批量删除课程 方式post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回Mes数据中 Data 为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayList&lt;CourseModel(courseID)&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/deleteBatchCourse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -892,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1130,6 +1146,20 @@
         <v>103</v>
       </c>
     </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" t="s">
+        <v>132</v>
+      </c>
+    </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>26</v>

--- a/src/main/doc/工程实践说明文档.xlsx
+++ b/src/main/doc/工程实践说明文档.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08C7E5C-F173-4DD2-A554-20D961800F4D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76F2D8E-D15A-48CD-81EF-5C900FF4D414}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="138">
   <si>
     <t>Controller使用说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -381,10 +381,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CourseModel(name) Curricula_variableModel(tno)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/addCourse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -414,10 +410,6 @@
   </si>
   <si>
     <t>根据课程号删除课程 方式:post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Curricula_variableModel(tno)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -576,6 +568,25 @@
   <si>
     <t>/deleteBatchCourse</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CourseModel(name)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/searchCourse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CourseModel（为空查询全部，不为空则模糊查询）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回Mes数据中 Data 为ArrayList&lt;CourseModel(courseID,name)&gt;</t>
   </si>
 </sst>
 </file>
@@ -908,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1092,72 +1103,83 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" t="s">
         <v>101</v>
-      </c>
-      <c r="E22" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>134</v>
       </c>
-      <c r="C24" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" t="s">
-        <v>133</v>
-      </c>
-      <c r="E24" t="s">
-        <v>132</v>
+      <c r="C25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1347,40 +1369,40 @@
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C78" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C81" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D81" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D82" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1429,65 +1451,65 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C93" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D93" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C94" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D94" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C96" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97" t="s">
+        <v>118</v>
+      </c>
+      <c r="D97" t="s">
         <v>119</v>
-      </c>
-      <c r="C97" t="s">
-        <v>120</v>
-      </c>
-      <c r="D97" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
+        <v>120</v>
+      </c>
+      <c r="C98" t="s">
+        <v>121</v>
+      </c>
+      <c r="D98" t="s">
         <v>122</v>
-      </c>
-      <c r="C98" t="s">
-        <v>123</v>
-      </c>
-      <c r="D98" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
+        <v>125</v>
+      </c>
+      <c r="C99" t="s">
+        <v>126</v>
+      </c>
+      <c r="D99" t="s">
         <v>127</v>
-      </c>
-      <c r="C99" t="s">
-        <v>128</v>
-      </c>
-      <c r="D99" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/doc/工程实践说明文档.xlsx
+++ b/src/main/doc/工程实践说明文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76F2D8E-D15A-48CD-81EF-5C900FF4D414}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA4968B-4D13-4B46-840A-0190E24B6A0A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="162">
   <si>
     <t>Controller使用说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,10 +389,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/changeCourseName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/deleteCourse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -413,15 +409,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CourseModel(courseID,name)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CourseModel(courseID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回Mes数据中 Data 为CourseModel(courseID,name)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -570,10 +558,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CourseModel(name)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/searchCourse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -586,14 +570,216 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回Mes数据中 Data 为ArrayList&lt;CourseModel(courseID,name)&gt;</t>
+    <t>/teacher/course/homework</t>
+  </si>
+  <si>
+    <t>教师添加作业
+其中 如果作业本身不存在，则创建作业，否则不创建
+且课程id不存在，则添加作业，连接教师与作业
+如果课程id存在，则添加作业，连接教师与作业，连接课程与作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homeworkModel(homeworkid)  CourseModel(courseID) 
+其中若homeworkid为空则创建新的homework,需要填写homeworkModel(String name; String describes;Date createtime;Date begintime;Date endtime;)(name为必填，其他可提供默认)
+若homeworkid不为空，则可选择填写courseID与否，自动执行连接作业课程与教师作业，不填写则只连接教师作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayList&lt;homeworkModel（String homeworkid）&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回Mes数据中 Data 为bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/deleteHomeworkLinkCourse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除课程与作业的关系，包括批量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayList&lt;course_homeworkModelKey(String courseid;String homeworkid;)&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/updateHomework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据homeworkid更新作业信息，
+其中包括 名称，描述，开始时间，结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homeworkModel(String homeworkid;
+String name; String describes;Date createtime;Date begintime;Date endtime;)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/searchHomework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示某老师的作业课程，包括模糊查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/addHomework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/deleteHomework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师删除作业，直接删除，(数据库会自动删除课程与作业关系，
+教师与作业关系)包括批量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CourseModel(courseID),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">homeworkModel(String name)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>显示某老师的作业课程，包括模糊查询，其中包括在某门课之下的查询
+和该老师所有课之下的查询</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>若courseID存在则查询该课下的homework
+若不存在则查询该老师的所有homework，name为空查询全部，不为空为模糊查询</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回Mes数据中 Data 为 ArrayList&lt;homeworkModel（String homeworkid;
+String name; String describes;Date createtime;Date begintime;Date endtime;）&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/searchHomeworkUsing</t>
+  </si>
+  <si>
+    <t>显示这个作业哪几门在用</t>
+  </si>
+  <si>
+    <t>homeworkModel（String homeworkid）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ArrayList&lt;CourseModel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>String courseID;String name;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String presentation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CourseModel(name，presentation)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CourseModel(courseID,name，presentation)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/updateCourse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回Mes数据中 Data 为CourseModel(courseID,name，presentation)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回Mes数据中 Data 为ArrayList&lt;CourseModel(courseID,name，presentation)&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,6 +799,45 @@
       <color rgb="FF9876AA"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FF6A8759"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FF808080"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -635,8 +860,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -917,18 +1166,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="67" customWidth="1"/>
-    <col min="4" max="4" width="52.44140625" customWidth="1"/>
+    <col min="4" max="4" width="66.21875" customWidth="1"/>
     <col min="5" max="5" width="67.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1106,13 +1355,13 @@
         <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1120,66 +1369,155 @@
         <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" t="s">
         <v>98</v>
       </c>
-      <c r="D23" t="s">
-        <v>100</v>
-      </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D28" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E28" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" t="s">
         <v>136</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E29" s="1" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1369,147 +1707,155 @@
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C78" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D78" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
+        <v>102</v>
+      </c>
+      <c r="D79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>155</v>
+      </c>
+      <c r="D80" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>103</v>
+      </c>
+      <c r="C82" t="s">
+        <v>104</v>
+      </c>
+      <c r="D82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
         <v>105</v>
       </c>
-      <c r="D79" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
+      <c r="D83" t="s">
         <v>106</v>
       </c>
-      <c r="C81" t="s">
-        <v>107</v>
-      </c>
-      <c r="D81" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="C82" t="s">
-        <v>108</v>
-      </c>
-      <c r="D82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>1</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C90" t="s">
         <v>14</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D90" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>52</v>
-      </c>
-      <c r="C90" t="s">
-        <v>53</v>
-      </c>
-      <c r="D90" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C91" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D91" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C92" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D92" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="C93" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="D93" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C94" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D94" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>115</v>
-      </c>
-      <c r="C96" t="s">
-        <v>116</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>120</v>
+      </c>
+      <c r="C95" t="s">
+        <v>121</v>
+      </c>
+      <c r="D95" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C97" t="s">
-        <v>118</v>
-      </c>
-      <c r="D97" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C98" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D98" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C99" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D99" t="s">
-        <v>127</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>122</v>
+      </c>
+      <c r="C100" t="s">
+        <v>123</v>
+      </c>
+      <c r="D100" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/doc/工程实践说明文档.xlsx
+++ b/src/main/doc/工程实践说明文档.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA4968B-4D13-4B46-840A-0190E24B6A0A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F75C0D7-CBFC-478B-ABBA-E67E51171A27}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="170">
   <si>
     <t>Controller使用说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -573,13 +573,6 @@
     <t>/teacher/course/homework</t>
   </si>
   <si>
-    <t>教师添加作业
-其中 如果作业本身不存在，则创建作业，否则不创建
-且课程id不存在，则添加作业，连接教师与作业
-如果课程id存在，则添加作业，连接教师与作业，连接课程与作业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>homeworkModel(homeworkid)  CourseModel(courseID) 
 其中若homeworkid为空则创建新的homework,需要填写homeworkModel(String name; String describes;Date createtime;Date begintime;Date endtime;)(name为必填，其他可提供默认)
 若homeworkid不为空，则可选择填写courseID与否，自动执行连接作业课程与教师作业，不填写则只连接教师作业</t>
@@ -607,11 +600,6 @@
   </si>
   <si>
     <t>/updateHomework</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据homeworkid更新作业信息，
-其中包括 名称，描述，开始时间，结束时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -696,9 +684,6 @@
     <t>/searchHomeworkUsing</t>
   </si>
   <si>
-    <t>显示这个作业哪几门在用</t>
-  </si>
-  <si>
     <t>homeworkModel（String homeworkid）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -774,12 +759,58 @@
     <t>返回Mes数据中 Data 为ArrayList&lt;CourseModel(courseID,name，presentation)&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>教师添加作业
+其中 如果作业给出homeworkid不存在，则创建作业，否则不创建
+且课程id不存在，则添加作业，连接教师与作业
+如果课程id存在，则添加作业，连接教师与作业，连接课程与作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">根据homeworkid更新作业信息，
+其中包括 名称，描述，开始时间，结束时间
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示这个作业哪几门课在用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/searchOneHomeworkDetail</t>
+  </si>
+  <si>
+    <t>/searchOneCourseDetail</t>
+  </si>
+  <si>
+    <t>获取某个课程详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CourseModel(courseID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回Mes数据中 Data 为CourseModel(courseID,name，presentation)</t>
+  </si>
+  <si>
+    <t>获取某个作业详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homeworkModel(*)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -839,6 +870,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FF6A8759"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -860,7 +897,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -884,6 +921,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1166,10 +1206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1350,511 +1390,546 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>91</v>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="D20" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E20" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="D21" t="s">
+        <v>154</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="E22" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="E23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>130</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>131</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>132</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" t="s">
+        <v>168</v>
+      </c>
+      <c r="E30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="48.6" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="75.599999999999994" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C30" t="s">
-        <v>139</v>
-      </c>
-      <c r="D30" t="s">
-        <v>140</v>
-      </c>
-      <c r="E30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E32" s="7" t="s">
+      <c r="D36" s="8" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
+      <c r="E36" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" t="s">
-        <v>14</v>
-      </c>
+    </row>
+    <row r="37" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B37" s="9"/>
+    </row>
+    <row r="38" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B38" s="9"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>25</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C57" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D58" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D59" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="D60" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="D61" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
         <v>72</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D64" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>37</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C66" t="s">
         <v>38</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D66" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
         <v>40</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D67" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>42</v>
-      </c>
-      <c r="D66" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>44</v>
-      </c>
-      <c r="C67" t="s">
-        <v>46</v>
-      </c>
-      <c r="D67" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
         <v>47</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D70" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
-        <v>48</v>
-      </c>
-      <c r="D69" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>45</v>
-      </c>
-      <c r="C70" t="s">
-        <v>49</v>
-      </c>
-      <c r="D70" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
         <v>50</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D73" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
         <v>51</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D74" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>62</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C76" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
         <v>64</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D77" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
         <v>66</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D78" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>100</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C80" t="s">
         <v>101</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D80" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
         <v>102</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D81" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
-        <v>155</v>
-      </c>
-      <c r="D80" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>152</v>
+      </c>
+      <c r="D82" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
         <v>103</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C84" t="s">
         <v>104</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D84" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="C83" t="s">
+    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
         <v>105</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D85" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>1</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C92" t="s">
         <v>14</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D92" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>52</v>
-      </c>
-      <c r="C91" t="s">
-        <v>53</v>
-      </c>
-      <c r="D91" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>56</v>
-      </c>
-      <c r="C92" t="s">
-        <v>57</v>
-      </c>
-      <c r="D92" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C93" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D93" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="C94" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="D94" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="C95" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="D95" t="s">
-        <v>111</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>109</v>
+      </c>
+      <c r="C96" t="s">
+        <v>110</v>
+      </c>
+      <c r="D96" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>114</v>
-      </c>
-      <c r="C98" t="s">
-        <v>115</v>
-      </c>
-      <c r="D98" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="D97" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C99" t="s">
-        <v>118</v>
-      </c>
-      <c r="D99" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
+        <v>114</v>
+      </c>
+      <c r="C100" t="s">
+        <v>115</v>
+      </c>
+      <c r="D100" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101" t="s">
+        <v>118</v>
+      </c>
+      <c r="D101" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
         <v>122</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C102" t="s">
         <v>123</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D102" t="s">
         <v>124</v>
       </c>
     </row>

--- a/src/main/doc/工程实践说明文档.xlsx
+++ b/src/main/doc/工程实践说明文档.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F75C0D7-CBFC-478B-ABBA-E67E51171A27}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471F0476-CA3C-43F1-91F2-5759D75DA816}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="174">
   <si>
     <t>Controller使用说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -803,6 +803,22 @@
   </si>
   <si>
     <t>homeworkModel(*)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/searchHomeworkWithoutUsing</t>
+  </si>
+  <si>
+    <t>显示目前属于该教师，但没有在该课程下的所有作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CourseModel （courseID）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回Mes数据中 Data 为 ArrayList&lt;homeworkModel（String homeworkid;
+String name; String describes;Date createtime;Date begintime;Date endtime;）&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1208,14 +1224,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="C29" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.109375" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" customWidth="1"/>
     <col min="3" max="3" width="67" customWidth="1"/>
     <col min="4" max="4" width="66.21875" customWidth="1"/>
     <col min="5" max="5" width="67.21875" customWidth="1"/>
@@ -1589,8 +1605,19 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
+    <row r="37" spans="2:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="38" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B38" s="9"/>

--- a/src/main/doc/工程实践说明文档.xlsx
+++ b/src/main/doc/工程实践说明文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471F0476-CA3C-43F1-91F2-5759D75DA816}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6614690A-E8DC-47E4-B5DB-DB64C5CCA147}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -813,12 +813,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CourseModel （courseID）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回Mes数据中 Data 为 ArrayList&lt;homeworkModel（String homeworkid;
 String name; String describes;Date createtime;Date begintime;Date endtime;）&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CourseModel （courseID）,homeworkModel（name）
+(name为模糊搜索，无则不写，因为CourseModel中也有name，则CourseModel中的name需要为空)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1224,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C29" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="C26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1612,11 +1613,11 @@
       <c r="C37" t="s">
         <v>171</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">

--- a/src/main/doc/工程实践说明文档.xlsx
+++ b/src/main/doc/工程实践说明文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6614690A-E8DC-47E4-B5DB-DB64C5CCA147}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6838E3EE-12CE-4B72-BD9F-3FEB0FA74801}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="226">
   <si>
     <t>Controller使用说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -820,6 +820,211 @@
   <si>
     <t>CourseModel （courseID）,homeworkModel（name）
 (name为模糊搜索，无则不写，因为CourseModel中也有name，则CourseModel中的name需要为空)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teacher/course/question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/addQuestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加问题（包括作业与问题的关系），添加教师关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回Mes数据中 Data 为true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带*为必要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homeworkModel （homeworkid）,
+questionModel (*questiontype,*title,*description)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/addHomeworkQuestionRelationship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加问题与课程关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homework_link_bankModelKey（*homeworkid，*questionid）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getAllQuestionFromHomework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取该教师的，某作业的所有题目（包括模糊）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/searchQuestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索题目,该老师的（包括模糊搜索，根据题目名）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homeworkModel (*homeworkid),questionModel (title),</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questionModel (title)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/updateQuestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 更新问题内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questionModel (*questionid ，*)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/deleteHomeworkQuestionRelationship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除问题与作业关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homework_link_bankModelKey（*questionid，*homeworkid）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/deleteQuestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questionModel（*questionid）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getHomeworkUseQuestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索该题目几个作业在使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getQuestionDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到某个题目详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索该老师的，该作业外的其他题目,包括模糊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homeworkModel （*homeworkid）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getQuestionExceptUsing</t>
+  </si>
+  <si>
+    <t>/getAnswerDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answerModel(*answerid)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到某个答案详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到某个题目的所有样例或答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getAllAnswerOrCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/addAnswerOrCase</t>
+  </si>
+  <si>
+    <t>/updateAnswerOrCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/deleteAnswerOrCase</t>
+  </si>
+  <si>
+    <t>questionModel （*questionid）,answerModel （answertid不用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加答案 案例（连接题目与答案）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answerModel（*answerid）</t>
+  </si>
+  <si>
+    <t>answerModel（*answerid）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回Mes数据中 Data 为ArrayList&lt;questionModel&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回Mes数据中 Data 为ArrayList&lt;homeworkModel&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回Mes数据中 Data 为questionModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回Mes数据中 Data 为answerModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回Mes数据中 Data 为ArrayList&lt;answerModel&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questionModel （*questionid）,answerModel (*answerType:answers|cases)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1223,16 +1428,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="C38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.109375" customWidth="1"/>
-    <col min="2" max="2" width="32.5546875" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
     <col min="3" max="3" width="67" customWidth="1"/>
     <col min="4" max="4" width="66.21875" customWidth="1"/>
     <col min="5" max="5" width="67.21875" customWidth="1"/>
@@ -1550,7 +1755,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>137</v>
       </c>
@@ -1564,7 +1769,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="48.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="48.6" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>140</v>
       </c>
@@ -1578,7 +1783,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="75.599999999999994" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>142</v>
       </c>
@@ -1592,7 +1797,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>149</v>
       </c>
@@ -1606,7 +1811,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>170</v>
       </c>
@@ -1620,344 +1825,565 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B38" s="9"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E40" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" t="s">
+        <v>181</v>
+      </c>
+      <c r="D41" t="s">
+        <v>182</v>
+      </c>
+      <c r="E41" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" t="s">
+        <v>184</v>
+      </c>
+      <c r="D42" t="s">
+        <v>187</v>
+      </c>
+      <c r="E42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" t="s">
+        <v>186</v>
+      </c>
+      <c r="D43" t="s">
+        <v>188</v>
+      </c>
+      <c r="E43" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44" t="s">
+        <v>190</v>
+      </c>
+      <c r="D44" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" t="s">
+        <v>193</v>
+      </c>
+      <c r="D45" t="s">
+        <v>194</v>
+      </c>
+      <c r="E45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D46" t="s">
+        <v>197</v>
+      </c>
+      <c r="E46" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C47" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" t="s">
+        <v>201</v>
+      </c>
+      <c r="D48" t="s">
+        <v>197</v>
+      </c>
+      <c r="E48" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" t="s">
+        <v>202</v>
+      </c>
+      <c r="D49" t="s">
+        <v>203</v>
+      </c>
+      <c r="E49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C50" t="s">
+        <v>207</v>
+      </c>
+      <c r="D50" t="s">
+        <v>206</v>
+      </c>
+      <c r="E50" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C51" t="s">
+        <v>208</v>
+      </c>
+      <c r="D51" t="s">
+        <v>225</v>
+      </c>
+      <c r="E51" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" t="s">
+        <v>215</v>
+      </c>
+      <c r="D52" t="s">
+        <v>214</v>
+      </c>
+      <c r="E52" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>210</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C53" t="s">
+        <v>216</v>
+      </c>
+      <c r="D53" t="s">
+        <v>219</v>
+      </c>
+      <c r="E53" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C54" t="s">
+        <v>217</v>
+      </c>
+      <c r="D54" t="s">
+        <v>218</v>
+      </c>
+      <c r="E54" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>24</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C61" t="s">
         <v>27</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D61" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>25</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C62" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
         <v>29</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D63" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
         <v>30</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D64" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
         <v>31</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D65" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
         <v>32</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D66" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
-        <v>68</v>
-      </c>
-      <c r="D62" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
-        <v>70</v>
-      </c>
-      <c r="D63" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>72</v>
-      </c>
-      <c r="D64" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>37</v>
-      </c>
-      <c r="C66" t="s">
-        <v>38</v>
-      </c>
-      <c r="D66" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D67" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D68" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>44</v>
-      </c>
       <c r="C69" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
-        <v>47</v>
-      </c>
-      <c r="D70" t="s">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>40</v>
+      </c>
+      <c r="D72" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
-        <v>48</v>
-      </c>
-      <c r="D71" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>45</v>
-      </c>
-      <c r="C72" t="s">
-        <v>49</v>
-      </c>
-      <c r="D72" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D73" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" t="s">
+        <v>46</v>
+      </c>
+      <c r="D74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>47</v>
+      </c>
+      <c r="D75" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
-        <v>51</v>
-      </c>
-      <c r="D74" t="s">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>48</v>
+      </c>
+      <c r="D76" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>62</v>
-      </c>
-      <c r="C76" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>45</v>
+      </c>
       <c r="C77" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D77" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
+        <v>50</v>
+      </c>
+      <c r="D78" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>51</v>
+      </c>
+      <c r="D79" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>62</v>
+      </c>
+      <c r="C81" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>64</v>
+      </c>
+      <c r="D82" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
         <v>66</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D83" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
         <v>100</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C85" t="s">
         <v>101</v>
-      </c>
-      <c r="D80" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C81" t="s">
-        <v>102</v>
-      </c>
-      <c r="D81" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
-        <v>152</v>
-      </c>
-      <c r="D82" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
-        <v>103</v>
-      </c>
-      <c r="C84" t="s">
-        <v>104</v>
-      </c>
-      <c r="D84" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="C85" t="s">
-        <v>105</v>
       </c>
       <c r="D85" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>102</v>
+      </c>
+      <c r="D86" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>152</v>
+      </c>
+      <c r="D87" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89" t="s">
+        <v>104</v>
+      </c>
+      <c r="D89" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>105</v>
+      </c>
+      <c r="D90" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>1</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C97" t="s">
         <v>14</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D97" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
         <v>52</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C98" t="s">
         <v>53</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D98" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
         <v>56</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C99" t="s">
         <v>57</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D99" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
         <v>59</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C100" t="s">
         <v>60</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D100" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
         <v>109</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C101" t="s">
         <v>110</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D101" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
         <v>120</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C102" t="s">
         <v>121</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D102" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
         <v>112</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C104" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
         <v>114</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C105" t="s">
         <v>115</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D105" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
         <v>117</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C106" t="s">
         <v>118</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D106" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
         <v>122</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C107" t="s">
         <v>123</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D107" t="s">
         <v>124</v>
       </c>
     </row>

--- a/src/main/doc/工程实践说明文档.xlsx
+++ b/src/main/doc/工程实践说明文档.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6838E3EE-12CE-4B72-BD9F-3FEB0FA74801}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56BA29C-DC54-42E9-8DD8-CCD71AF64657}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="232">
   <si>
     <t>Controller使用说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1026,6 +1026,26 @@
   <si>
     <t>questionModel （*questionid）,answerModel (*answerType:answers|cases)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getAllCase</t>
+  </si>
+  <si>
+    <t>/getAllAnswer</t>
+  </si>
+  <si>
+    <t>得到某个题目的所有样例</t>
+  </si>
+  <si>
+    <t>得到某个题目的所有答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questionModel （*questionid）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回Mes数据中 Data 为ArrayList&lt;answerModel&gt;</t>
   </si>
 </sst>
 </file>
@@ -1428,10 +1448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2006,384 +2026,412 @@
     </row>
     <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="C52" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D52" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="E52" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>210</v>
-      </c>
       <c r="B53" s="2" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="C53" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D53" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="E53" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C54" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D54" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E54" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>24</v>
-      </c>
-      <c r="C61" t="s">
-        <v>27</v>
-      </c>
-      <c r="D61" t="s">
-        <v>14</v>
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>210</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C55" t="s">
+        <v>216</v>
+      </c>
+      <c r="D55" t="s">
+        <v>219</v>
+      </c>
+      <c r="E55" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C56" t="s">
+        <v>217</v>
+      </c>
+      <c r="D56" t="s">
+        <v>218</v>
+      </c>
+      <c r="E56" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>25</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C64" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
-        <v>29</v>
-      </c>
-      <c r="D63" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>30</v>
-      </c>
-      <c r="D64" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D65" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D66" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="D67" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="D68" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>70</v>
+      </c>
+      <c r="D70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
         <v>72</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D71" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>37</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C73" t="s">
         <v>38</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D73" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
         <v>40</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D74" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
-        <v>42</v>
-      </c>
-      <c r="D73" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>44</v>
-      </c>
-      <c r="C74" t="s">
-        <v>46</v>
-      </c>
-      <c r="D74" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
+        <v>42</v>
+      </c>
+      <c r="D75" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76" t="s">
+        <v>46</v>
+      </c>
+      <c r="D76" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
         <v>47</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D77" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
-        <v>48</v>
-      </c>
-      <c r="D76" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>45</v>
-      </c>
-      <c r="C77" t="s">
-        <v>49</v>
-      </c>
-      <c r="D77" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
+        <v>48</v>
+      </c>
+      <c r="D78" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
         <v>50</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D80" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
         <v>51</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D81" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
         <v>62</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C83" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
         <v>64</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D84" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
         <v>66</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D85" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
         <v>100</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C87" t="s">
         <v>101</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D87" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
         <v>102</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D88" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
         <v>152</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D89" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="2:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
+    <row r="91" spans="2:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
         <v>103</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C91" t="s">
         <v>104</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D91" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="2:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="C90" t="s">
+    <row r="92" spans="2:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
         <v>105</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D92" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>1</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C99" t="s">
         <v>14</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D99" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>52</v>
-      </c>
-      <c r="C98" t="s">
-        <v>53</v>
-      </c>
-      <c r="D98" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>56</v>
-      </c>
-      <c r="C99" t="s">
-        <v>57</v>
-      </c>
-      <c r="D99" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C100" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D100" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="C101" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="D101" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="C102" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="D102" t="s">
-        <v>111</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103" t="s">
+        <v>110</v>
+      </c>
+      <c r="D103" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C104" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>114</v>
-      </c>
-      <c r="C105" t="s">
-        <v>115</v>
-      </c>
-      <c r="D105" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="D104" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C106" t="s">
-        <v>118</v>
-      </c>
-      <c r="D106" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
+        <v>114</v>
+      </c>
+      <c r="C107" t="s">
+        <v>115</v>
+      </c>
+      <c r="D107" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>117</v>
+      </c>
+      <c r="C108" t="s">
+        <v>118</v>
+      </c>
+      <c r="D108" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
         <v>122</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C109" t="s">
         <v>123</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D109" t="s">
         <v>124</v>
       </c>
     </row>

--- a/src/main/doc/工程实践说明文档.xlsx
+++ b/src/main/doc/工程实践说明文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56BA29C-DC54-42E9-8DD8-CCD71AF64657}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD52EC60-F244-4C52-A843-F561D0CBCEF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="239">
   <si>
     <t>Controller使用说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1046,6 +1046,35 @@
   </si>
   <si>
     <t>返回Mes数据中 Data 为ArrayList&lt;answerModel&gt;</t>
+  </si>
+  <si>
+    <t>/ReflashQuestionNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新某次作业的问题序列号，根据已有的自动排序，比如 1 1 2 3 6会
+刷新成1 2 3 4 5的序列号，用在删除了某个题目或者一下合适的东西上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回Mes数据中 Data 为true</t>
+  </si>
+  <si>
+    <t>/updateQuestionNumberBatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新问题的序号，即按照给出的序号更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homework_link_bankModel（*homeworkid）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayList&lt;homework_link_bankModel
+(homeworkid,questionid,questionnumber)&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1450,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="B38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2097,6 +2126,34 @@
         <v>177</v>
       </c>
     </row>
+    <row r="57" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E57" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C58" t="s">
+        <v>236</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E58" t="s">
+        <v>234</v>
+      </c>
+    </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>26</v>

--- a/src/main/doc/工程实践说明文档.xlsx
+++ b/src/main/doc/工程实践说明文档.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD52EC60-F244-4C52-A843-F561D0CBCEF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E57FE3-4191-4B30-B9B6-B0363AD908B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="240">
   <si>
     <t>Controller使用说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -626,53 +626,6 @@
   <si>
     <t>教师删除作业，直接删除，(数据库会自动删除课程与作业关系，
 教师与作业关系)包括批量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CourseModel(courseID),</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">homeworkModel(String name)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>显示某老师的作业课程，包括模糊查询，其中包括在某门课之下的查询
-和该老师所有课之下的查询</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>若courseID存在则查询该课下的homework
-若不存在则查询该老师的所有homework，name为空查询全部，不为空为模糊查询</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -787,10 +740,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CourseModel(courseID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回Mes数据中 Data 为CourseModel(courseID,name，presentation)</t>
   </si>
   <si>
@@ -818,11 +767,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CourseModel （courseID）,homeworkModel（name）
-(name为模糊搜索，无则不写，因为CourseModel中也有name，则CourseModel中的name需要为空)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/teacher/course/question</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -876,14 +820,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>homeworkModel (*homeworkid),questionModel (title),</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>questionModel (title)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/updateQuestion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -937,10 +873,6 @@
   </si>
   <si>
     <t>搜索该老师的，该作业外的其他题目,包括模糊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>homeworkModel （*homeworkid）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1074,6 +1006,137 @@
   <si>
     <t>ArrayList&lt;homework_link_bankModel
 (homeworkid,questionid,questionnumber)&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageLimit（page_number，page_limit）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CourseModel(courseID),pageLimit（page_number，page_limit）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CourseModel(courseID),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>homeworkModel(String name),pageLimit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>page_number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>page_limit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>显示某老师的作业课程，包括模糊查询，其中包括在某门课之下的查询
+和该老师所有课之下的查询</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>若courseID存在则查询该课下的homework
+若不存在则查询该老师的所有homework，name为空查询全部，不为空为模糊查询</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CourseModel （courseID）,homeworkModel（name）,pageLimit（page_number，page_limit）
+(name为模糊搜索，无则不写，因为CourseModel中也有name，则CourseModel中的name需要为空)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homeworkModel (*homeworkid),questionModel (title),
+,pageLimit（page_number，page_limit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homeworkModel （*homeworkid）
+,pageLimit（page_number，page_limit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questionModel (title),pageLimit（page_number，page_limit)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1479,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1663,16 +1726,16 @@
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" t="s">
         <v>163</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>234</v>
+      </c>
+      <c r="E20" t="s">
         <v>164</v>
-      </c>
-      <c r="D20" t="s">
-        <v>165</v>
-      </c>
-      <c r="E20" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1683,10 +1746,10 @@
         <v>94</v>
       </c>
       <c r="D21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1696,22 +1759,25 @@
       <c r="C22" t="s">
         <v>95</v>
       </c>
+      <c r="D22" t="s">
+        <v>233</v>
+      </c>
       <c r="E22" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C23" t="s">
         <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1725,7 +1791,7 @@
         <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1753,7 +1819,7 @@
         <v>132</v>
       </c>
       <c r="E26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1764,16 +1830,16 @@
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" t="s">
         <v>167</v>
-      </c>
-      <c r="D30" t="s">
-        <v>168</v>
-      </c>
-      <c r="E30" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
@@ -1781,7 +1847,7 @@
         <v>144</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>134</v>
@@ -1823,7 +1889,7 @@
         <v>140</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>141</v>
@@ -1832,7 +1898,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="91.2" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>142</v>
       </c>
@@ -1840,38 +1906,38 @@
         <v>143</v>
       </c>
       <c r="D35" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D36" s="8" t="s">
+      <c r="E36" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="C37" t="s">
-        <v>171</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
@@ -1879,279 +1945,279 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C40" t="s">
+        <v>173</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>179</v>
-      </c>
       <c r="E40" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>181</v>
       </c>
-      <c r="D41" t="s">
-        <v>182</v>
-      </c>
-      <c r="E41" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C42" t="s">
-        <v>184</v>
-      </c>
-      <c r="D42" t="s">
-        <v>187</v>
+      <c r="D42" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="E42" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C43" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D43" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="E43" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C44" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D44" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E44" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C45" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D45" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E45" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C46" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D46" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E46" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C47" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D47" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E47" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C48" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D48" t="s">
+        <v>192</v>
+      </c>
+      <c r="E48" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E48" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C49" t="s">
-        <v>202</v>
-      </c>
-      <c r="D49" t="s">
-        <v>203</v>
+      <c r="D49" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="E49" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C50" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D50" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E50" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C51" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D51" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E51" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C52" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D52" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E52" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C53" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D53" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E53" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C54" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D54" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E54" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>204</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C55" t="s">
         <v>210</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C55" t="s">
-        <v>216</v>
-      </c>
       <c r="D55" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E55" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C56" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D56" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E56" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E57" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C58" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E58" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2360,10 +2426,10 @@
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
+        <v>151</v>
+      </c>
+      <c r="D89" t="s">
         <v>152</v>
-      </c>
-      <c r="D89" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="91" spans="2:4" ht="15" x14ac:dyDescent="0.3">

--- a/src/main/doc/工程实践说明文档.xlsx
+++ b/src/main/doc/工程实践说明文档.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E57FE3-4191-4B30-B9B6-B0363AD908B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DD9EBF-03FA-433C-A782-7E9A2EB52FCC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1542,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/src/main/doc/工程实践说明文档.xlsx
+++ b/src/main/doc/工程实践说明文档.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DD9EBF-03FA-433C-A782-7E9A2EB52FCC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890BBE52-07E6-4E53-B2E8-238EB3503470}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -926,13 +926,6 @@
   </si>
   <si>
     <t>删除答案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answerModel（*answerid）</t>
-  </si>
-  <si>
-    <t>answerModel（*answerid）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1139,12 +1132,19 @@
     <t>questionModel (title),pageLimit（page_number，page_limit)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>questionModel （*questionid）,answerModel（*answerid）</t>
+  </si>
+  <si>
+    <t>questionModel （*questionid）,answerModel（*answerid）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1210,6 +1210,12 @@
       <name val="等线"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1231,7 +1237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1258,6 +1264,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1542,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1732,7 +1741,7 @@
         <v>163</v>
       </c>
       <c r="D20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E20" t="s">
         <v>164</v>
@@ -1760,7 +1769,7 @@
         <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E22" t="s">
         <v>99</v>
@@ -1906,7 +1915,7 @@
         <v>143</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>147</v>
@@ -1934,7 +1943,7 @@
         <v>169</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>170</v>
@@ -1987,10 +1996,10 @@
         <v>181</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E42" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -2001,10 +2010,10 @@
         <v>183</v>
       </c>
       <c r="D43" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E43" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -2060,7 +2069,7 @@
         <v>192</v>
       </c>
       <c r="E47" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -2074,7 +2083,7 @@
         <v>192</v>
       </c>
       <c r="E48" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
@@ -2085,10 +2094,10 @@
         <v>197</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E49" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -2102,7 +2111,7 @@
         <v>200</v>
       </c>
       <c r="E50" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -2113,38 +2122,38 @@
         <v>202</v>
       </c>
       <c r="D51" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E51" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C52" t="s">
         <v>220</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>222</v>
       </c>
-      <c r="D52" t="s">
-        <v>224</v>
-      </c>
       <c r="E52" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C53" t="s">
         <v>221</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>222</v>
+      </c>
+      <c r="E53" t="s">
         <v>223</v>
-      </c>
-      <c r="D53" t="s">
-        <v>224</v>
-      </c>
-      <c r="E53" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -2165,28 +2174,28 @@
       <c r="A55" t="s">
         <v>204</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="10" t="s">
         <v>206</v>
       </c>
       <c r="C55" t="s">
         <v>210</v>
       </c>
       <c r="D55" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="E55" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="10" t="s">
         <v>207</v>
       </c>
       <c r="C56" t="s">
         <v>211</v>
       </c>
       <c r="D56" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="E56" t="s">
         <v>174</v>
@@ -2194,30 +2203,30 @@
     </row>
     <row r="57" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E57" t="s">
         <v>226</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E57" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C58" t="s">
+        <v>228</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>232</v>
-      </c>
       <c r="E58" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/main/doc/工程实践说明文档.xlsx
+++ b/src/main/doc/工程实践说明文档.xlsx
@@ -949,7 +949,7 @@
     <t>根据学号修改该学生信息</t>
   </si>
   <si>
-    <t>student_uniteModel (name,password,sage,ssex,sgrade,sdept,sphone_number,semail)这个有bug，最近改</t>
+    <t>student_uniteModel (name,password,sage,ssex,sgrade,sdept,sphone_number,semail均可修改)</t>
   </si>
   <si>
     <t>/selectCourseFromStudent</t>
@@ -1076,24 +1076,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1107,6 +1099,36 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1127,39 +1149,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1173,24 +1173,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1211,11 +1203,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1246,7 +1246,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,31 +1384,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,139 +1426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1442,15 +1442,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1460,11 +1451,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1484,32 +1505,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1543,10 +1543,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1555,137 +1555,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1719,9 +1719,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2045,7 +2042,7 @@
   <sheetPr/>
   <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
       <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
@@ -3132,14 +3129,14 @@
         <v>242</v>
       </c>
     </row>
-    <row r="119" ht="41.4" spans="2:4">
+    <row r="119" ht="27.6" spans="2:4">
       <c r="B119" t="s">
         <v>243</v>
       </c>
       <c r="C119" t="s">
         <v>244</v>
       </c>
-      <c r="D119" s="13" t="s">
+      <c r="D119" s="3" t="s">
         <v>245</v>
       </c>
     </row>

--- a/src/main/doc/工程实践说明文档.xlsx
+++ b/src/main/doc/工程实践说明文档.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="280">
   <si>
     <t>Controller使用说明</t>
   </si>
@@ -1014,18 +1014,57 @@
   <si>
     <t>teacherModel(*tno)</t>
   </si>
+  <si>
+    <t>/student</t>
+  </si>
+  <si>
+    <t>/selectCourseInfoFromStudent</t>
+  </si>
+  <si>
+    <t>获取该学生的所有选课信息及相应教师</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pageLimit（*page_number，*page_limit)，通过session获取studentModel（*no)</t>
+  </si>
+  <si>
+    <t>/selectHomeworkInfoFromCourseID</t>
+  </si>
+  <si>
+    <t>显示该课程的所有作业</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pageLimit（*page_number，*page_limit)， CourseModel(*courseID)</t>
+  </si>
+  <si>
+    <t>/selectQuestionFromHomeworkID</t>
+  </si>
+  <si>
+    <t>显示本次作业的所有题目，按题号排序.</t>
+  </si>
+  <si>
+    <t>pageLimit（*page_number，*page_limit)，homeworkModel(*homeworkid)输出questionNumber题号+question这道题目所有内容</t>
+  </si>
+  <si>
+    <t>/selectQuestionFromNumber</t>
+  </si>
+  <si>
+    <t>根据题号获取本次作业的那一题</t>
+  </si>
+  <si>
+    <t>homework_link_bankModel（*homeworkid ，*questionnumber）</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1075,45 +1114,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="12"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1128,46 +1137,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1189,7 +1159,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1197,7 +1167,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1211,9 +1181,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1246,19 +1291,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1270,13 +1315,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,97 +1369,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1390,7 +1387,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1408,7 +1405,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1420,13 +1429,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1440,27 +1485,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1514,6 +1548,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1523,17 +1572,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1543,10 +1588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1555,137 +1600,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1721,6 +1766,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2040,17 +2089,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="32.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="40.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="67" customWidth="1"/>
+    <col min="3" max="3" width="64.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="66.2222222222222" customWidth="1"/>
     <col min="5" max="5" width="67.2222222222222" customWidth="1"/>
   </cols>
@@ -3228,6 +3277,53 @@
         <v>266</v>
       </c>
     </row>
+    <row r="130" ht="27.6" spans="1:4">
+      <c r="A130" t="s">
+        <v>267</v>
+      </c>
+      <c r="B130" t="s">
+        <v>268</v>
+      </c>
+      <c r="C130" t="s">
+        <v>269</v>
+      </c>
+      <c r="D130" s="13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4">
+      <c r="B131" t="s">
+        <v>271</v>
+      </c>
+      <c r="C131" t="s">
+        <v>272</v>
+      </c>
+      <c r="D131" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="132" ht="27.6" spans="2:4">
+      <c r="B132" t="s">
+        <v>274</v>
+      </c>
+      <c r="C132" t="s">
+        <v>275</v>
+      </c>
+      <c r="D132" s="13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="133" ht="15.6" spans="2:4">
+      <c r="B133" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C133" t="s">
+        <v>278</v>
+      </c>
+      <c r="D133" t="s">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/doc/工程实践说明文档.xlsx
+++ b/src/main/doc/工程实践说明文档.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LearningProject\graduate\engineeringPractice\sseoj\src\main\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43883D38-6A71-4FFB-BFCE-8B239F932090}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="286">
   <si>
     <t>Controller使用说明</t>
   </si>
@@ -277,7 +283,7 @@
         <sz val="11.3"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>homeworkModel(String name),pageLimit</t>
     </r>
@@ -295,7 +301,7 @@
         <sz val="11.3"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>page_number</t>
     </r>
@@ -313,7 +319,7 @@
         <sz val="11.3"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>page_limit</t>
     </r>
@@ -331,7 +337,7 @@
         <sz val="11.3"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -351,7 +357,7 @@
         <sz val="11.3"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>,</t>
     </r>
@@ -385,7 +391,7 @@
         <sz val="11.3"/>
         <color rgb="FFA9B7C6"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>ArrayList&lt;CourseModel</t>
     </r>
@@ -403,7 +409,7 @@
         <sz val="11.3"/>
         <color rgb="FFA9B7C6"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>String courseID;String name;</t>
     </r>
@@ -421,7 +427,7 @@
         <sz val="11.3"/>
         <color rgb="FFA9B7C6"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>&gt;</t>
     </r>
@@ -778,7 +784,7 @@
         <sz val="11.3"/>
         <color rgb="FF9876AA"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>tno</t>
     </r>
@@ -802,7 +808,7 @@
         <sz val="11.3"/>
         <color rgb="FF9876AA"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>courseID</t>
     </r>
@@ -1052,19 +1058,38 @@
   </si>
   <si>
     <t>homework_link_bankModel（*homeworkid ，*questionnumber）</t>
+  </si>
+  <si>
+    <t>/judgeQuestion</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>/commitHomework</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生确认提交作业</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生提交题目到判题系统（一次提交一题）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_homeworkModelWithBLOBs（*courseid,*homeworkid,*questionid,langauge(1 cpp,0 c,2 jsp,3 java)（选择填空不用填）,* questiontype( choose,blank, programming),* answers (为空不判题)，
+）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_homeworkModelKey   （*courseid,*homeworkid）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1076,7 +1101,7 @@
       <sz val="11.3"/>
       <color rgb="FF6A8759"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11.3"/>
@@ -1094,7 +1119,7 @@
       <sz val="11.3"/>
       <color rgb="FFA9B7C6"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11.3"/>
@@ -1106,7 +1131,7 @@
       <sz val="11.3"/>
       <color rgb="FFFF0000"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1120,154 +1145,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11.3"/>
       <color theme="1"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11.3"/>
@@ -1279,204 +1160,24 @@
       <sz val="11.3"/>
       <color rgb="FF9876AA"/>
       <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1484,253 +1185,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1770,62 +1229,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2083,28 +1501,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="40.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="64.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="66.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="67.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="3" max="3" width="64.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.21875" customWidth="1"/>
+    <col min="5" max="5" width="67.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2118,12 +1536,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -2137,7 +1555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -2151,12 +1569,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -2170,7 +1588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -2184,7 +1602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -2198,7 +1616,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -2212,7 +1630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -2226,7 +1644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>27</v>
       </c>
@@ -2240,7 +1658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>30</v>
       </c>
@@ -2254,7 +1672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -2268,12 +1686,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="2:5">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
@@ -2287,7 +1705,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>38</v>
       </c>
@@ -2301,7 +1719,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>41</v>
       </c>
@@ -2315,7 +1733,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>45</v>
       </c>
@@ -2329,7 +1747,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>48</v>
       </c>
@@ -2343,7 +1761,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>51</v>
       </c>
@@ -2357,7 +1775,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>55</v>
       </c>
@@ -2371,12 +1789,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="1:1">
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="1:5">
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>60</v>
@@ -2391,7 +1809,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" ht="82.8" spans="2:5">
+    <row r="31" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>64</v>
       </c>
@@ -2405,7 +1823,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" ht="27.6" spans="2:5">
+    <row r="32" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>68</v>
       </c>
@@ -2419,7 +1837,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="2:5">
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>71</v>
       </c>
@@ -2433,7 +1851,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" ht="45" spans="2:5">
+    <row r="34" spans="1:5" ht="48.6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>74</v>
       </c>
@@ -2447,7 +1865,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" ht="90" spans="2:5">
+    <row r="35" spans="1:5" ht="91.2" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>77</v>
       </c>
@@ -2461,7 +1879,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="2:5">
+    <row r="36" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>81</v>
       </c>
@@ -2475,7 +1893,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" ht="55.2" spans="2:5">
+    <row r="37" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>85</v>
       </c>
@@ -2489,10 +1907,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" ht="14.4" spans="2:2">
+    <row r="38" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B38" s="9"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -2500,7 +1918,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" ht="27.6" spans="2:5">
+    <row r="40" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>90</v>
       </c>
@@ -2514,7 +1932,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" ht="15" spans="2:5">
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>94</v>
       </c>
@@ -2528,7 +1946,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" ht="27.6" spans="2:5">
+    <row r="42" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>97</v>
       </c>
@@ -2542,7 +1960,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" ht="15" spans="2:5">
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>101</v>
       </c>
@@ -2556,7 +1974,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" ht="15" spans="2:5">
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>104</v>
       </c>
@@ -2570,7 +1988,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" ht="15" spans="2:5">
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>107</v>
       </c>
@@ -2584,7 +2002,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" ht="15" spans="2:5">
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>110</v>
       </c>
@@ -2598,7 +2016,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" ht="15" spans="2:5">
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>113</v>
       </c>
@@ -2612,7 +2030,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" ht="15" spans="2:5">
+    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>116</v>
       </c>
@@ -2626,7 +2044,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" ht="27.6" spans="2:5">
+    <row r="49" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>119</v>
       </c>
@@ -2640,7 +2058,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" ht="15" spans="2:5">
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>122</v>
       </c>
@@ -2654,7 +2072,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" ht="15" spans="2:5">
+    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>126</v>
       </c>
@@ -2668,7 +2086,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" ht="15" spans="2:5">
+    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>130</v>
       </c>
@@ -2682,7 +2100,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" ht="15" spans="2:5">
+    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>133</v>
       </c>
@@ -2696,7 +2114,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" ht="15" spans="2:5">
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>135</v>
       </c>
@@ -2710,7 +2128,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" ht="15" spans="1:5">
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>138</v>
       </c>
@@ -2727,7 +2145,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" ht="15" spans="2:5">
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>142</v>
       </c>
@@ -2741,7 +2159,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" ht="27.6" spans="2:5">
+    <row r="57" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>144</v>
       </c>
@@ -2755,7 +2173,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58" ht="27.6" spans="2:5">
+    <row r="58" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>147</v>
       </c>
@@ -2769,12 +2187,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>151</v>
       </c>
@@ -2785,7 +2203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>153</v>
       </c>
@@ -2793,7 +2211,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="3:4">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>155</v>
       </c>
@@ -2801,7 +2219,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="3:4">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>157</v>
       </c>
@@ -2809,7 +2227,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="3:4">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>159</v>
       </c>
@@ -2817,7 +2235,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="3:4">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>161</v>
       </c>
@@ -2825,7 +2243,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="3:4">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>163</v>
       </c>
@@ -2833,7 +2251,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="3:4">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>165</v>
       </c>
@@ -2841,7 +2259,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="3:4">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>167</v>
       </c>
@@ -2849,7 +2267,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="73" spans="2:4">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>169</v>
       </c>
@@ -2860,7 +2278,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="74" spans="3:4">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>171</v>
       </c>
@@ -2868,7 +2286,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="3:4">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>172</v>
       </c>
@@ -2876,7 +2294,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="76" spans="2:4">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>173</v>
       </c>
@@ -2887,7 +2305,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="77" spans="3:4">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>175</v>
       </c>
@@ -2895,7 +2313,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="78" spans="3:4">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>176</v>
       </c>
@@ -2903,7 +2321,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="79" spans="2:4">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>177</v>
       </c>
@@ -2914,7 +2332,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="80" spans="3:4">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>179</v>
       </c>
@@ -2922,7 +2340,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="81" spans="3:4">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>180</v>
       </c>
@@ -2930,7 +2348,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="2:3">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>181</v>
       </c>
@@ -2938,7 +2356,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="84" spans="3:4">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>183</v>
       </c>
@@ -2946,7 +2364,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="85" spans="3:4">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>185</v>
       </c>
@@ -2954,7 +2372,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="87" spans="2:4">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>187</v>
       </c>
@@ -2965,7 +2383,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="88" spans="3:4">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>190</v>
       </c>
@@ -2973,7 +2391,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="89" spans="3:4">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>192</v>
       </c>
@@ -2981,7 +2399,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="91" ht="15" spans="2:4">
+    <row r="91" spans="2:4" ht="15" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>194</v>
       </c>
@@ -2992,7 +2410,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="92" ht="15" spans="3:4">
+    <row r="92" spans="2:4" ht="15" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>197</v>
       </c>
@@ -3000,7 +2418,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>198</v>
       </c>
@@ -3011,7 +2429,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="2:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>200</v>
       </c>
@@ -3022,7 +2440,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="101" spans="2:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>203</v>
       </c>
@@ -3033,7 +2451,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="102" spans="2:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>206</v>
       </c>
@@ -3044,7 +2462,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="103" spans="2:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>181</v>
       </c>
@@ -3055,7 +2473,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="104" spans="2:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>211</v>
       </c>
@@ -3066,7 +2484,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="106" spans="2:3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>214</v>
       </c>
@@ -3074,7 +2492,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="107" spans="2:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>216</v>
       </c>
@@ -3085,7 +2503,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="108" spans="2:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>219</v>
       </c>
@@ -3096,7 +2514,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="109" spans="2:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>222</v>
       </c>
@@ -3107,12 +2525,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="113" ht="27.6" spans="2:4">
+    <row r="113" spans="2:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>226</v>
       </c>
@@ -3123,7 +2541,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="114" ht="31.2" spans="2:4">
+    <row r="114" spans="2:4" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>229</v>
       </c>
@@ -3134,7 +2552,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="115" spans="2:4">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>232</v>
       </c>
@@ -3145,7 +2563,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="116" spans="2:4">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>235</v>
       </c>
@@ -3156,7 +2574,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="117" spans="2:4">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>238</v>
       </c>
@@ -3167,7 +2585,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="118" spans="2:4">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>240</v>
       </c>
@@ -3178,7 +2596,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="119" ht="27.6" spans="2:4">
+    <row r="119" spans="2:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>243</v>
       </c>
@@ -3189,7 +2607,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="120" spans="2:4">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>246</v>
       </c>
@@ -3200,7 +2618,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="121" spans="2:4">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>249</v>
       </c>
@@ -3211,7 +2629,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="122" spans="2:4">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>252</v>
       </c>
@@ -3222,7 +2640,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="123" spans="2:4">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>254</v>
       </c>
@@ -3233,7 +2651,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="124" spans="2:4">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>256</v>
       </c>
@@ -3244,7 +2662,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="125" spans="2:4">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>41</v>
       </c>
@@ -3255,7 +2673,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="126" spans="2:4">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>261</v>
       </c>
@@ -3266,7 +2684,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="127" spans="2:4">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>264</v>
       </c>
@@ -3277,21 +2695,21 @@
         <v>266</v>
       </c>
     </row>
-    <row r="130" ht="27.6" spans="1:4">
+    <row r="130" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>267</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="4" t="s">
         <v>269</v>
       </c>
       <c r="D130" s="13" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="131" spans="2:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>271</v>
       </c>
@@ -3302,7 +2720,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="132" ht="27.6" spans="2:4">
+    <row r="132" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>274</v>
       </c>
@@ -3313,7 +2731,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="133" ht="15.6" spans="2:4">
+    <row r="133" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B133" s="14" t="s">
         <v>277</v>
       </c>
@@ -3324,9 +2742,31 @@
         <v>279</v>
       </c>
     </row>
+    <row r="136" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="B136" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D136" s="15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>281</v>
+      </c>
+      <c r="C137" t="s">
+        <v>282</v>
+      </c>
+      <c r="D137" t="s">
+        <v>285</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/doc/工程实践说明文档.xlsx
+++ b/src/main/doc/工程实践说明文档.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LearningProject\graduate\engineeringPractice\sseoj\src\main\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43883D38-6A71-4FFB-BFCE-8B239F932090}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -283,7 +277,7 @@
         <sz val="11.3"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>homeworkModel(String name),pageLimit</t>
     </r>
@@ -301,7 +295,7 @@
         <sz val="11.3"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>page_number</t>
     </r>
@@ -319,7 +313,7 @@
         <sz val="11.3"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>page_limit</t>
     </r>
@@ -337,7 +331,7 @@
         <sz val="11.3"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -357,7 +351,7 @@
         <sz val="11.3"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -391,7 +385,7 @@
         <sz val="11.3"/>
         <color rgb="FFA9B7C6"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>ArrayList&lt;CourseModel</t>
     </r>
@@ -409,7 +403,7 @@
         <sz val="11.3"/>
         <color rgb="FFA9B7C6"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>String courseID;String name;</t>
     </r>
@@ -427,7 +421,7 @@
         <sz val="11.3"/>
         <color rgb="FFA9B7C6"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>&gt;</t>
     </r>
@@ -784,7 +778,7 @@
         <sz val="11.3"/>
         <color rgb="FF9876AA"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>tno</t>
     </r>
@@ -808,7 +802,7 @@
         <sz val="11.3"/>
         <color rgb="FF9876AA"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>courseID</t>
     </r>
@@ -973,7 +967,7 @@
     <t>根据学号批量删除学生选课信息</t>
   </si>
   <si>
-    <t>select_courseModelKey(*sno)</t>
+    <t>select_courseModelKey(*sno，*courseid)</t>
   </si>
   <si>
     <t>/deleteBranchStudentInfo</t>
@@ -1061,35 +1055,35 @@
   </si>
   <si>
     <t>/judgeQuestion</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>/commitHomework</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生确认提交作业</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>学生提交题目到判题系统（一次提交一题）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>student_homeworkModelWithBLOBs（*courseid,*homeworkid,*questionid,langauge(1 cpp,0 c,2 jsp,3 java)（选择填空不用填）,* questiontype( choose,blank, programming),* answers (为空不判题)，
 ）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>/commitHomework</t>
+  </si>
+  <si>
+    <t>学生确认提交作业</t>
   </si>
   <si>
     <t>student_homeworkModelKey   （*courseid,*homeworkid）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1101,7 +1095,7 @@
       <sz val="11.3"/>
       <color rgb="FF6A8759"/>
       <name val="Consolas"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11.3"/>
@@ -1119,7 +1113,7 @@
       <sz val="11.3"/>
       <color rgb="FFA9B7C6"/>
       <name val="Consolas"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11.3"/>
@@ -1131,7 +1125,7 @@
       <sz val="11.3"/>
       <color rgb="FFFF0000"/>
       <name val="Consolas"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1145,10 +1139,154 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11.3"/>
       <color theme="1"/>
       <name val="Consolas"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11.3"/>
@@ -1160,24 +1298,204 @@
       <sz val="11.3"/>
       <color rgb="FF9876AA"/>
       <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1185,11 +1503,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1225,25 +1785,66 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1501,28 +2102,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="D137" sqref="D137"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1"/>
-    <col min="2" max="2" width="40.33203125" customWidth="1"/>
-    <col min="3" max="3" width="64.6640625" customWidth="1"/>
-    <col min="4" max="4" width="66.21875" customWidth="1"/>
-    <col min="5" max="5" width="67.21875" customWidth="1"/>
+    <col min="1" max="1" width="32.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="40.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="64.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="66.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="67.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1536,12 +2137,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1555,7 +2156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -1569,12 +2170,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -1588,7 +2189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -1602,7 +2203,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -1616,7 +2217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -1630,7 +2231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -1644,7 +2245,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5">
       <c r="B15" t="s">
         <v>27</v>
       </c>
@@ -1658,7 +2259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5">
       <c r="B16" t="s">
         <v>30</v>
       </c>
@@ -1672,7 +2273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5">
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -1686,12 +2287,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" ht="15" spans="2:5">
       <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
@@ -1705,7 +2306,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5">
       <c r="B21" t="s">
         <v>38</v>
       </c>
@@ -1719,7 +2320,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5">
       <c r="B22" t="s">
         <v>41</v>
       </c>
@@ -1733,7 +2334,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5">
       <c r="B23" t="s">
         <v>45</v>
       </c>
@@ -1747,7 +2348,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5">
       <c r="B24" t="s">
         <v>48</v>
       </c>
@@ -1761,7 +2362,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5">
       <c r="B25" t="s">
         <v>51</v>
       </c>
@@ -1775,7 +2376,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5">
       <c r="B26" t="s">
         <v>55</v>
       </c>
@@ -1789,12 +2390,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" ht="15" spans="1:1">
       <c r="A29" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" ht="15" spans="1:5">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>60</v>
@@ -1809,7 +2410,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="31" ht="82.8" spans="2:5">
       <c r="B31" s="1" t="s">
         <v>64</v>
       </c>
@@ -1823,7 +2424,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="32" ht="27.6" spans="2:5">
       <c r="B32" s="1" t="s">
         <v>68</v>
       </c>
@@ -1837,7 +2438,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" ht="15" spans="2:5">
       <c r="B33" s="1" t="s">
         <v>71</v>
       </c>
@@ -1851,7 +2452,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="48.6" x14ac:dyDescent="0.25">
+    <row r="34" ht="45" spans="2:5">
       <c r="B34" s="1" t="s">
         <v>74</v>
       </c>
@@ -1865,7 +2466,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="91.2" x14ac:dyDescent="0.25">
+    <row r="35" ht="90" spans="2:5">
       <c r="B35" s="1" t="s">
         <v>77</v>
       </c>
@@ -1879,7 +2480,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="36" ht="15" spans="2:5">
       <c r="B36" s="1" t="s">
         <v>81</v>
       </c>
@@ -1893,7 +2494,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="37" ht="55.2" spans="2:5">
       <c r="B37" s="1" t="s">
         <v>85</v>
       </c>
@@ -1907,10 +2508,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="38" ht="14.4" spans="2:2">
       <c r="B38" s="9"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -1918,7 +2519,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="40" ht="27.6" spans="2:5">
       <c r="B40" s="1" t="s">
         <v>90</v>
       </c>
@@ -1932,7 +2533,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" ht="15" spans="2:5">
       <c r="B41" s="1" t="s">
         <v>94</v>
       </c>
@@ -1946,7 +2547,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="42" ht="27.6" spans="2:5">
       <c r="B42" s="1" t="s">
         <v>97</v>
       </c>
@@ -1960,7 +2561,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" ht="15" spans="2:5">
       <c r="B43" s="1" t="s">
         <v>101</v>
       </c>
@@ -1974,7 +2575,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" ht="15" spans="2:5">
       <c r="B44" s="1" t="s">
         <v>104</v>
       </c>
@@ -1988,7 +2589,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" ht="15" spans="2:5">
       <c r="B45" s="1" t="s">
         <v>107</v>
       </c>
@@ -2002,7 +2603,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" ht="15" spans="2:5">
       <c r="B46" s="1" t="s">
         <v>110</v>
       </c>
@@ -2016,7 +2617,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" ht="15" spans="2:5">
       <c r="B47" s="1" t="s">
         <v>113</v>
       </c>
@@ -2030,7 +2631,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" ht="15" spans="2:5">
       <c r="B48" s="1" t="s">
         <v>116</v>
       </c>
@@ -2044,7 +2645,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="49" ht="27.6" spans="2:5">
       <c r="B49" s="1" t="s">
         <v>119</v>
       </c>
@@ -2058,7 +2659,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" ht="15" spans="2:5">
       <c r="B50" s="1" t="s">
         <v>122</v>
       </c>
@@ -2072,7 +2673,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" ht="15" spans="2:5">
       <c r="B51" s="1" t="s">
         <v>126</v>
       </c>
@@ -2086,7 +2687,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" ht="15" spans="2:5">
       <c r="B52" s="1" t="s">
         <v>130</v>
       </c>
@@ -2100,7 +2701,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" ht="15" spans="2:5">
       <c r="B53" s="1" t="s">
         <v>133</v>
       </c>
@@ -2114,7 +2715,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" ht="15" spans="2:5">
       <c r="B54" s="1" t="s">
         <v>135</v>
       </c>
@@ -2128,7 +2729,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" ht="15" spans="1:5">
       <c r="A55" t="s">
         <v>138</v>
       </c>
@@ -2145,7 +2746,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" ht="15" spans="2:5">
       <c r="B56" s="10" t="s">
         <v>142</v>
       </c>
@@ -2159,7 +2760,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="57" ht="27.6" spans="2:5">
       <c r="B57" s="1" t="s">
         <v>144</v>
       </c>
@@ -2173,7 +2774,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="58" ht="27.6" spans="2:5">
       <c r="B58" s="1" t="s">
         <v>147</v>
       </c>
@@ -2187,12 +2788,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2">
       <c r="B62" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>151</v>
       </c>
@@ -2203,7 +2804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3">
       <c r="B64" t="s">
         <v>153</v>
       </c>
@@ -2211,7 +2812,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4">
       <c r="C65" t="s">
         <v>155</v>
       </c>
@@ -2219,7 +2820,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4">
       <c r="C66" t="s">
         <v>157</v>
       </c>
@@ -2227,7 +2828,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4">
       <c r="C67" t="s">
         <v>159</v>
       </c>
@@ -2235,7 +2836,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4">
       <c r="C68" t="s">
         <v>161</v>
       </c>
@@ -2243,7 +2844,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4">
       <c r="C69" t="s">
         <v>163</v>
       </c>
@@ -2251,7 +2852,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4">
       <c r="C70" t="s">
         <v>165</v>
       </c>
@@ -2259,7 +2860,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:4">
       <c r="C71" t="s">
         <v>167</v>
       </c>
@@ -2267,7 +2868,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4">
       <c r="B73" t="s">
         <v>169</v>
       </c>
@@ -2278,7 +2879,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:4">
       <c r="C74" t="s">
         <v>171</v>
       </c>
@@ -2286,7 +2887,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:4">
       <c r="C75" t="s">
         <v>172</v>
       </c>
@@ -2294,7 +2895,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4">
       <c r="B76" t="s">
         <v>173</v>
       </c>
@@ -2305,7 +2906,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:4">
       <c r="C77" t="s">
         <v>175</v>
       </c>
@@ -2313,7 +2914,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:4">
       <c r="C78" t="s">
         <v>176</v>
       </c>
@@ -2321,7 +2922,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4">
       <c r="B79" t="s">
         <v>177</v>
       </c>
@@ -2332,7 +2933,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:4">
       <c r="C80" t="s">
         <v>179</v>
       </c>
@@ -2340,7 +2941,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4">
       <c r="C81" t="s">
         <v>180</v>
       </c>
@@ -2348,7 +2949,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3">
       <c r="B83" t="s">
         <v>181</v>
       </c>
@@ -2356,7 +2957,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:4">
       <c r="C84" t="s">
         <v>183</v>
       </c>
@@ -2364,7 +2965,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4">
       <c r="C85" t="s">
         <v>185</v>
       </c>
@@ -2372,7 +2973,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:4">
       <c r="B87" t="s">
         <v>187</v>
       </c>
@@ -2383,7 +2984,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:4">
       <c r="C88" t="s">
         <v>190</v>
       </c>
@@ -2391,7 +2992,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:4">
       <c r="C89" t="s">
         <v>192</v>
       </c>
@@ -2399,7 +3000,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="91" spans="2:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="91" ht="15" spans="2:4">
       <c r="B91" t="s">
         <v>194</v>
       </c>
@@ -2410,7 +3011,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="92" spans="2:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="92" ht="15" spans="3:4">
       <c r="C92" t="s">
         <v>197</v>
       </c>
@@ -2418,7 +3019,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>198</v>
       </c>
@@ -2429,7 +3030,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4">
       <c r="B100" t="s">
         <v>200</v>
       </c>
@@ -2440,7 +3041,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4">
       <c r="B101" t="s">
         <v>203</v>
       </c>
@@ -2451,7 +3052,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4">
       <c r="B102" t="s">
         <v>206</v>
       </c>
@@ -2462,7 +3063,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:4">
       <c r="B103" t="s">
         <v>181</v>
       </c>
@@ -2473,7 +3074,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:4">
       <c r="B104" t="s">
         <v>211</v>
       </c>
@@ -2484,7 +3085,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3">
       <c r="B106" t="s">
         <v>214</v>
       </c>
@@ -2492,7 +3093,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:4">
       <c r="B107" t="s">
         <v>216</v>
       </c>
@@ -2503,7 +3104,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:4">
       <c r="B108" t="s">
         <v>219</v>
       </c>
@@ -2514,7 +3115,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:4">
       <c r="B109" t="s">
         <v>222</v>
       </c>
@@ -2525,12 +3126,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1">
       <c r="A112" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="113" spans="2:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="113" ht="27.6" spans="2:4">
       <c r="B113" t="s">
         <v>226</v>
       </c>
@@ -2541,7 +3142,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="114" spans="2:4" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="114" ht="31.2" spans="2:4">
       <c r="B114" t="s">
         <v>229</v>
       </c>
@@ -2552,7 +3153,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:4">
       <c r="B115" t="s">
         <v>232</v>
       </c>
@@ -2563,7 +3164,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:4">
       <c r="B116" t="s">
         <v>235</v>
       </c>
@@ -2574,7 +3175,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:4">
       <c r="B117" t="s">
         <v>238</v>
       </c>
@@ -2585,7 +3186,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:4">
       <c r="B118" t="s">
         <v>240</v>
       </c>
@@ -2596,7 +3197,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="119" spans="2:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="119" ht="27.6" spans="2:4">
       <c r="B119" t="s">
         <v>243</v>
       </c>
@@ -2607,7 +3208,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:4">
       <c r="B120" t="s">
         <v>246</v>
       </c>
@@ -2618,7 +3219,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:4">
       <c r="B121" t="s">
         <v>249</v>
       </c>
@@ -2629,7 +3230,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:4">
       <c r="B122" t="s">
         <v>252</v>
       </c>
@@ -2640,7 +3241,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:4">
       <c r="B123" t="s">
         <v>254</v>
       </c>
@@ -2651,7 +3252,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:4">
       <c r="B124" t="s">
         <v>256</v>
       </c>
@@ -2662,7 +3263,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:4">
       <c r="B125" t="s">
         <v>41</v>
       </c>
@@ -2673,7 +3274,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:4">
       <c r="B126" t="s">
         <v>261</v>
       </c>
@@ -2684,7 +3285,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:4">
       <c r="B127" t="s">
         <v>264</v>
       </c>
@@ -2695,7 +3296,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="130" ht="27.6" spans="1:4">
       <c r="A130" t="s">
         <v>267</v>
       </c>
@@ -2705,34 +3306,34 @@
       <c r="C130" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D130" s="13" t="s">
+      <c r="D130" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:4">
       <c r="B131" t="s">
         <v>271</v>
       </c>
       <c r="C131" t="s">
         <v>272</v>
       </c>
-      <c r="D131" s="13" t="s">
+      <c r="D131" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="132" ht="27.6" spans="2:4">
       <c r="B132" t="s">
         <v>274</v>
       </c>
       <c r="C132" t="s">
         <v>275</v>
       </c>
-      <c r="D132" s="13" t="s">
+      <c r="D132" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B133" s="14" t="s">
+    <row r="133" ht="15.6" spans="2:4">
+      <c r="B133" s="13" t="s">
         <v>277</v>
       </c>
       <c r="C133" t="s">
@@ -2742,31 +3343,31 @@
         <v>279</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+    <row r="136" ht="69" spans="2:4">
       <c r="B136" s="4" t="s">
         <v>280</v>
       </c>
       <c r="C136" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D136" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4">
+      <c r="B137" t="s">
         <v>283</v>
       </c>
-      <c r="D136" s="15" t="s">
+      <c r="C137" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
-        <v>281</v>
-      </c>
-      <c r="C137" t="s">
-        <v>282</v>
       </c>
       <c r="D137" t="s">
         <v>285</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/doc/工程实践说明文档.xlsx
+++ b/src/main/doc/工程实践说明文档.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LearningProject\graduate\engineeringPractice\sseoj\src\main\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A0B7F3-50EF-4D99-89B2-CA045EDF640F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -277,7 +283,7 @@
         <sz val="11.3"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>homeworkModel(String name),pageLimit</t>
     </r>
@@ -295,7 +301,7 @@
         <sz val="11.3"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>page_number</t>
     </r>
@@ -313,7 +319,7 @@
         <sz val="11.3"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>page_limit</t>
     </r>
@@ -331,7 +337,7 @@
         <sz val="11.3"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -351,7 +357,7 @@
         <sz val="11.3"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>,</t>
     </r>
@@ -385,7 +391,7 @@
         <sz val="11.3"/>
         <color rgb="FFA9B7C6"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>ArrayList&lt;CourseModel</t>
     </r>
@@ -403,7 +409,7 @@
         <sz val="11.3"/>
         <color rgb="FFA9B7C6"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>String courseID;String name;</t>
     </r>
@@ -421,7 +427,7 @@
         <sz val="11.3"/>
         <color rgb="FFA9B7C6"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>&gt;</t>
     </r>
@@ -778,7 +784,7 @@
         <sz val="11.3"/>
         <color rgb="FF9876AA"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>tno</t>
     </r>
@@ -802,7 +808,7 @@
         <sz val="11.3"/>
         <color rgb="FF9876AA"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>courseID</t>
     </r>
@@ -1060,30 +1066,25 @@
     <t>学生提交题目到判题系统（一次提交一题）</t>
   </si>
   <si>
+    <t>/commitHomework</t>
+  </si>
+  <si>
+    <t>学生确认提交作业</t>
+  </si>
+  <si>
+    <t>student_homeworkModelKey   （*courseid,*homeworkid）</t>
+  </si>
+  <si>
     <t>student_homeworkModelWithBLOBs（*courseid,*homeworkid,*questionid,langauge(1 cpp,0 c,2 jsp,3 java)（选择填空不用填）,* questiontype( choose,blank, programming),* answers (为空不判题)，
 ）</t>
-  </si>
-  <si>
-    <t>/commitHomework</t>
-  </si>
-  <si>
-    <t>学生确认提交作业</t>
-  </si>
-  <si>
-    <t>student_homeworkModelKey   （*courseid,*homeworkid）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1095,7 +1096,7 @@
       <sz val="11.3"/>
       <color rgb="FF6A8759"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11.3"/>
@@ -1113,7 +1114,7 @@
       <sz val="11.3"/>
       <color rgb="FFA9B7C6"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11.3"/>
@@ -1125,7 +1126,7 @@
       <sz val="11.3"/>
       <color rgb="FFFF0000"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1139,154 +1140,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11.3"/>
       <color theme="1"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11.3"/>
@@ -1298,204 +1155,24 @@
       <sz val="11.3"/>
       <color rgb="FF9876AA"/>
       <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1503,251 +1180,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1790,61 +1225,17 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2102,28 +1493,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="40.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="64.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="66.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="67.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="3" max="3" width="64.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.21875" customWidth="1"/>
+    <col min="5" max="5" width="67.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2137,12 +1528,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -2156,7 +1547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -2170,12 +1561,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -2189,7 +1580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -2203,7 +1594,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -2217,7 +1608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -2231,7 +1622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -2245,7 +1636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>27</v>
       </c>
@@ -2259,7 +1650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>30</v>
       </c>
@@ -2273,7 +1664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -2287,12 +1678,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="2:5">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
@@ -2306,7 +1697,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>38</v>
       </c>
@@ -2320,7 +1711,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>41</v>
       </c>
@@ -2334,7 +1725,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>45</v>
       </c>
@@ -2348,7 +1739,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>48</v>
       </c>
@@ -2362,7 +1753,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>51</v>
       </c>
@@ -2376,7 +1767,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>55</v>
       </c>
@@ -2390,12 +1781,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="1:1">
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="1:5">
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>60</v>
@@ -2410,7 +1801,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" ht="82.8" spans="2:5">
+    <row r="31" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>64</v>
       </c>
@@ -2424,7 +1815,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" ht="27.6" spans="2:5">
+    <row r="32" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>68</v>
       </c>
@@ -2438,7 +1829,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="2:5">
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>71</v>
       </c>
@@ -2452,7 +1843,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" ht="45" spans="2:5">
+    <row r="34" spans="1:5" ht="48.6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>74</v>
       </c>
@@ -2466,7 +1857,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" ht="90" spans="2:5">
+    <row r="35" spans="1:5" ht="91.2" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>77</v>
       </c>
@@ -2480,7 +1871,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="2:5">
+    <row r="36" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>81</v>
       </c>
@@ -2494,7 +1885,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" ht="55.2" spans="2:5">
+    <row r="37" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>85</v>
       </c>
@@ -2508,10 +1899,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" ht="14.4" spans="2:2">
+    <row r="38" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B38" s="9"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -2519,7 +1910,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" ht="27.6" spans="2:5">
+    <row r="40" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>90</v>
       </c>
@@ -2533,7 +1924,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" ht="15" spans="2:5">
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>94</v>
       </c>
@@ -2547,7 +1938,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" ht="27.6" spans="2:5">
+    <row r="42" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>97</v>
       </c>
@@ -2561,7 +1952,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" ht="15" spans="2:5">
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>101</v>
       </c>
@@ -2575,7 +1966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" ht="15" spans="2:5">
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>104</v>
       </c>
@@ -2589,7 +1980,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" ht="15" spans="2:5">
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>107</v>
       </c>
@@ -2603,7 +1994,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" ht="15" spans="2:5">
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>110</v>
       </c>
@@ -2617,7 +2008,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" ht="15" spans="2:5">
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>113</v>
       </c>
@@ -2631,7 +2022,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" ht="15" spans="2:5">
+    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>116</v>
       </c>
@@ -2645,7 +2036,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" ht="27.6" spans="2:5">
+    <row r="49" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>119</v>
       </c>
@@ -2659,7 +2050,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" ht="15" spans="2:5">
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>122</v>
       </c>
@@ -2673,7 +2064,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" ht="15" spans="2:5">
+    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>126</v>
       </c>
@@ -2687,7 +2078,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" ht="15" spans="2:5">
+    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>130</v>
       </c>
@@ -2701,7 +2092,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" ht="15" spans="2:5">
+    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>133</v>
       </c>
@@ -2715,7 +2106,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" ht="15" spans="2:5">
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>135</v>
       </c>
@@ -2729,7 +2120,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" ht="15" spans="1:5">
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>138</v>
       </c>
@@ -2746,7 +2137,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" ht="15" spans="2:5">
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>142</v>
       </c>
@@ -2760,7 +2151,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" ht="27.6" spans="2:5">
+    <row r="57" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>144</v>
       </c>
@@ -2774,7 +2165,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58" ht="27.6" spans="2:5">
+    <row r="58" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>147</v>
       </c>
@@ -2788,12 +2179,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>151</v>
       </c>
@@ -2804,7 +2195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>153</v>
       </c>
@@ -2812,7 +2203,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="3:4">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>155</v>
       </c>
@@ -2820,7 +2211,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="3:4">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>157</v>
       </c>
@@ -2828,7 +2219,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="3:4">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>159</v>
       </c>
@@ -2836,7 +2227,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="3:4">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>161</v>
       </c>
@@ -2844,7 +2235,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="3:4">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>163</v>
       </c>
@@ -2852,7 +2243,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="3:4">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>165</v>
       </c>
@@ -2860,7 +2251,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="3:4">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>167</v>
       </c>
@@ -2868,7 +2259,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="73" spans="2:4">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>169</v>
       </c>
@@ -2879,7 +2270,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="74" spans="3:4">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>171</v>
       </c>
@@ -2887,7 +2278,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="3:4">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>172</v>
       </c>
@@ -2895,7 +2286,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="76" spans="2:4">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>173</v>
       </c>
@@ -2906,7 +2297,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="77" spans="3:4">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>175</v>
       </c>
@@ -2914,7 +2305,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="78" spans="3:4">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>176</v>
       </c>
@@ -2922,7 +2313,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="79" spans="2:4">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>177</v>
       </c>
@@ -2933,7 +2324,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="80" spans="3:4">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>179</v>
       </c>
@@ -2941,7 +2332,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="81" spans="3:4">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>180</v>
       </c>
@@ -2949,7 +2340,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="2:3">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>181</v>
       </c>
@@ -2957,7 +2348,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="84" spans="3:4">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>183</v>
       </c>
@@ -2965,7 +2356,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="85" spans="3:4">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>185</v>
       </c>
@@ -2973,7 +2364,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="87" spans="2:4">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>187</v>
       </c>
@@ -2984,7 +2375,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="88" spans="3:4">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>190</v>
       </c>
@@ -2992,7 +2383,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="89" spans="3:4">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>192</v>
       </c>
@@ -3000,7 +2391,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="91" ht="15" spans="2:4">
+    <row r="91" spans="2:4" ht="15" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>194</v>
       </c>
@@ -3011,7 +2402,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="92" ht="15" spans="3:4">
+    <row r="92" spans="2:4" ht="15" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>197</v>
       </c>
@@ -3019,7 +2410,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>198</v>
       </c>
@@ -3030,7 +2421,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="2:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>200</v>
       </c>
@@ -3041,7 +2432,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="101" spans="2:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>203</v>
       </c>
@@ -3052,7 +2443,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="102" spans="2:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>206</v>
       </c>
@@ -3063,7 +2454,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="103" spans="2:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>181</v>
       </c>
@@ -3074,7 +2465,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="104" spans="2:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>211</v>
       </c>
@@ -3085,7 +2476,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="106" spans="2:3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>214</v>
       </c>
@@ -3093,7 +2484,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="107" spans="2:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>216</v>
       </c>
@@ -3104,7 +2495,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="108" spans="2:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>219</v>
       </c>
@@ -3115,7 +2506,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="109" spans="2:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>222</v>
       </c>
@@ -3126,12 +2517,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="113" ht="27.6" spans="2:4">
+    <row r="113" spans="2:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>226</v>
       </c>
@@ -3142,7 +2533,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="114" ht="31.2" spans="2:4">
+    <row r="114" spans="2:4" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>229</v>
       </c>
@@ -3153,7 +2544,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="115" spans="2:4">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>232</v>
       </c>
@@ -3164,7 +2555,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="116" spans="2:4">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>235</v>
       </c>
@@ -3175,7 +2566,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="117" spans="2:4">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>238</v>
       </c>
@@ -3186,7 +2577,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="118" spans="2:4">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>240</v>
       </c>
@@ -3197,7 +2588,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="119" ht="27.6" spans="2:4">
+    <row r="119" spans="2:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>243</v>
       </c>
@@ -3208,7 +2599,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="120" spans="2:4">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>246</v>
       </c>
@@ -3219,7 +2610,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="121" spans="2:4">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>249</v>
       </c>
@@ -3230,7 +2621,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="122" spans="2:4">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>252</v>
       </c>
@@ -3241,7 +2632,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="123" spans="2:4">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>254</v>
       </c>
@@ -3252,7 +2643,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="124" spans="2:4">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>256</v>
       </c>
@@ -3263,7 +2654,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="125" spans="2:4">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>41</v>
       </c>
@@ -3274,7 +2665,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="126" spans="2:4">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>261</v>
       </c>
@@ -3285,7 +2676,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="127" spans="2:4">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>264</v>
       </c>
@@ -3296,7 +2687,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="130" ht="27.6" spans="1:4">
+    <row r="130" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>267</v>
       </c>
@@ -3310,7 +2701,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="131" spans="2:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>271</v>
       </c>
@@ -3321,7 +2712,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="132" ht="27.6" spans="2:4">
+    <row r="132" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>274</v>
       </c>
@@ -3332,7 +2723,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="133" ht="15.6" spans="2:4">
+    <row r="133" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B133" s="13" t="s">
         <v>277</v>
       </c>
@@ -3343,7 +2734,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="136" ht="69" spans="2:4">
+    <row r="136" spans="1:4" ht="69" x14ac:dyDescent="0.25">
       <c r="B136" s="4" t="s">
         <v>280</v>
       </c>
@@ -3351,23 +2742,23 @@
         <v>281</v>
       </c>
       <c r="D136" s="14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="137" spans="2:4">
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>283</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>284</v>
       </c>
-      <c r="D137" t="s">
-        <v>285</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>